--- a/biology/Botanique/Bangiaceae/Bangiaceae.xlsx
+++ b/biology/Botanique/Bangiaceae/Bangiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bangiaceae sont une famille d'algues rouges de l'ordre des Bangiales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Bangia, éponyme dédicacé par l'algologue danois Hans Christian Lyngbye (en) à son collaborateur Hofmann Bang[1], qui l'accueillit dans sa propriété d'Hofmansgave sur l'île danoise de Fionie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Bangia, éponyme dédicacé par l'algologue danois Hans Christian Lyngbye (en) à son collaborateur Hofmann Bang, qui l'accueillit dans sa propriété d'Hofmansgave sur l'île danoise de Fionie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (30 nov. 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (30 nov. 2012) :
 Bangia Lyngbye
 Bangiomorpha N.J.Butterfield
 Boreophyllum S.C.Lindstrom, N. Kikuchi, M.Miyata &amp; Neefus
@@ -559,7 +575,7 @@
 Pseudobangia K.M.Müller &amp; R.G.Sheath
 Pyropia J.Agardh
 Wildemania De Toni
-Selon Catalogue of Life                                   (30 nov. 2012)[3] :
+Selon Catalogue of Life                                   (30 nov. 2012) :
 Aspalatia
 Bangia
 Bangiella
@@ -569,12 +585,12 @@
 Porphyrella
 Wildemania
 Zachariasia
-Selon ITIS      (30 nov. 2012)[4] :
+Selon ITIS      (30 nov. 2012) :
 Bangia Lyngbye, 1819
 Conchocelis Batters, 1892
 Porphyra C. A. Agardh
 Porphyrella Smith &amp; Hollenberg, 1943
-Selon NCBI  (30 nov. 2012)[5] :
+Selon NCBI  (30 nov. 2012) :
 Bangia
 Boreophyllum
 Clymene
@@ -585,7 +601,7 @@
 Pseudobangia
 Pyropia
 Wildemania
-Selon World Register of Marine Species                               (30 nov. 2012)[6] :
+Selon World Register of Marine Species                               (30 nov. 2012) :
 Bangia Lyngbye, 1819
 Bangiomorpha N.J.Butterfield, 2000
 Boreophyllum S.C.Lindstrom, N. Kikuchi, M.Miyata &amp; Neefus, 2011
